--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuba_\Desktop\Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A7E40-40BD-4764-945F-0D0C58D81D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD185EA6-2E36-4D15-B7E8-85A57E765466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5D91B9FC-A937-4C4E-8021-90840CD77DED}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Product1</t>
   </si>
@@ -173,6 +173,33 @@
   </si>
   <si>
     <t>Sandra, Red</t>
+  </si>
+  <si>
+    <t>Amy Smith</t>
+  </si>
+  <si>
+    <t>Jacob Johnson</t>
+  </si>
+  <si>
+    <t>Chris Black</t>
+  </si>
+  <si>
+    <t>Adam Baker</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
   </si>
 </sst>
 </file>
@@ -1431,22 +1458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27697266-005F-4030-987E-FB71706A286D}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1504,14 @@
       <c r="K1" t="str">
         <v xml:space="preserve"> Smith</v>
       </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1506,8 +1540,14 @@
       <c r="K2" t="str">
         <v xml:space="preserve"> Blue</v>
       </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1536,8 +1576,14 @@
       <c r="K3" t="str">
         <v xml:space="preserve"> Jones</v>
       </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1557,8 +1603,14 @@
       <c r="K4" t="str">
         <v xml:space="preserve"> Johnson</v>
       </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1578,12 +1630,15 @@
       <c r="K5" t="str">
         <v xml:space="preserve"> Red</v>
       </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1641,7 +1696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1702,8 +1757,8 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{182177EA-D653-469E-BFC8-715C556A67A9}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{5D1D283C-0657-4102-86B8-494DF6C6CCEC}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{93B7B059-5D5B-427E-9BA7-A51FFDB5588F}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{D4A85956-0465-405B-B65D-48A537B018BC}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{3A443213-A34A-4145-9771-28D02EE46341}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{DAEA0617-7446-4911-B6C9-6B463906AA0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
